--- a/ATGH001/ATGH001-a-001/ATG-H001-a-001.xlsx
+++ b/ATGH001/ATGH001-a-001/ATG-H001-a-001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcericmitzscherling/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcericmitzscherling/Documents/Projekte/GitHub/Handschriftenarchiv/Digitalisierungen/ATGH001/ATGH001-a-001/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51992478-754E-1D4F-887A-F34D69DA7EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5D1E09-C46E-FA49-BF8F-6C4113D3CEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="136">
   <si>
     <t>required</t>
   </si>
@@ -423,9 +423,6 @@
   </si>
   <si>
     <t>handschriftenarchiv@protonmail.com</t>
-  </si>
-  <si>
-    <t>Alle Rechte vorbehalten</t>
   </si>
   <si>
     <t>[{ "Findbuch":"http://archiv.handschriften.bplaced.de/suche/details/ATG-H-001"}]</t>
@@ -456,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -473,6 +470,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -504,11 +507,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -819,9 +823,9 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1322,13 +1326,13 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
-        <v>128</v>
+      <c r="E22" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="F22" t="s">
         <v>90</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H22" t="s">
@@ -1349,7 +1353,7 @@
         <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
         <v>95</v>
@@ -1389,7 +1393,7 @@
         <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
         <v>102</v>
@@ -1412,7 +1416,7 @@
         <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
         <v>105</v>
@@ -1432,7 +1436,7 @@
         <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" t="s">
         <v>115</v>
@@ -1452,7 +1456,7 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" t="s">
         <v>116</v>
@@ -1478,9 +1482,9 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1510,18 +1514,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
         <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
